--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUJITH_\DataScience\StoryTellingTextToSpeech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9965206-B8C7-48DB-AD50-156DBFDD9F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440DB2AA-6272-4AEC-B492-5A786B8AF3FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,39 +25,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
-  <si>
-    <t>NO[xlsx]</t>
-  </si>
-  <si>
-    <t>Food</t>
-  </si>
-  <si>
-    <t>Usage</t>
-  </si>
-  <si>
-    <t>Apple</t>
-  </si>
-  <si>
-    <t>Apple has vitamin</t>
-  </si>
-  <si>
-    <t>anti oxidants</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Orange</t>
-  </si>
-  <si>
-    <t>Orage has vitamin c</t>
   </si>
   <si>
     <t>Fish</t>
   </si>
   <si>
-    <t>Omega -3 fatty acids</t>
+    <t>Story</t>
   </si>
   <si>
-    <t>proteins</t>
+    <t>On a breezy afternoon in a small village, young Aanya ran to the open field with her new kite. The kite was blue, with bright yellow stars scattered across it. She had waited all week for the perfect day to fly it, and today seemed just right. The wind was strong, and the sky was clear</t>
   </si>
 </sst>
 </file>
@@ -375,68 +354,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
